--- a/MIEMSS.xlsx
+++ b/MIEMSS.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joehaber/Desktop/Desktop/1. ActuariAI/Consulting/Lisa/Maps Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375CAC95-4C0B-8A42-BB67-95FA313EFD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD4A636-AA82-B741-BCCD-019F43BB7039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="15640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIEMSS - Daily Query Data Expor" sheetId="1" r:id="rId1"/>
-    <sheet name="Acute Hospitals" sheetId="5" r:id="rId2"/>
-    <sheet name="PAC Hospitals" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
-    <sheet name="Acute Hospitals (2)" sheetId="6" r:id="rId5"/>
-    <sheet name="Comments" sheetId="2" r:id="rId6"/>
+    <sheet name="MIEMSS- Daily Report (LEAH)" sheetId="7" r:id="rId2"/>
+    <sheet name="Acute Hospitals" sheetId="5" r:id="rId3"/>
+    <sheet name="PAC Hospitals" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="Acute Hospitals (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="Comments" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MIEMSS - Daily Query Data Expor'!$A$1:$Y$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'PAC Hospitals'!$A$1:$D$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">'PAC Hospitals'!$A$1:$D$226</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="423">
   <si>
     <t>Modified</t>
   </si>
@@ -1164,6 +1165,155 @@
   </si>
   <si>
     <t>Num Bed</t>
+  </si>
+  <si>
+    <t>Facility Name [43 Facilities w/ Physical Beds]</t>
+  </si>
+  <si>
+    <t>Facility Names (complete names) [43 Facilities]</t>
+  </si>
+  <si>
+    <t>Regions 
+(as Approved with Tina)</t>
+  </si>
+  <si>
+    <t>Region
+(MIEMSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne Arundel Medical Center </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic General Hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baltimore Washington Medical Center </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalvertHealth Medical Center </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital Region Medical Center (UMCRH) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carroll Hospital Center (LifeBridge) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Regional (UM) </t>
+  </si>
+  <si>
+    <t>Chestertown (UMSRH)- 296</t>
+  </si>
+  <si>
+    <t>UM Shore Medical Center at Chestertown (UMSRH)</t>
+  </si>
+  <si>
+    <t>Health Doctors Community Medical Center (Luminis)</t>
+  </si>
+  <si>
+    <t>UM Shore Medical Center at Easton (UMSRH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Washington Hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franklin Square (MedStar) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederick Health Hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrett Regional Medical Center (WVU) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Samaritan Hospital (MedStar) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace Medical Center (LifeBridge) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Baltimore Medical Center </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harbor Hospital (MedStar) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Cross Germantown Hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Cross Hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howard County General Hospital (JHM) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johns Hopkins Bayview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johns Hopkins Hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercy Medical Center </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meritus Medical Center </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midtown (UM) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montgomery Medical Center (MedStar) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northwest Hospital (LifeBridge) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peninsula Regional (TidalHealth) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shady Grove Medical Center (Adventist) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinai Hospital (LifeBridge) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Maryland Hospital (MedStar) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Agnes Hospital (Ascension) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Joseph Medical Center (UM) </t>
+  </si>
+  <si>
+    <t>St. Mary’s Hospital (MedStar)</t>
+  </si>
+  <si>
+    <t>Suburban Hospital (JHM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Hospital (ChristianaCare) </t>
+  </si>
+  <si>
+    <t>Union Memorial Hospital (MedStar)</t>
+  </si>
+  <si>
+    <t>University of Maryland Medical Center</t>
+  </si>
+  <si>
+    <t>Upper Chesapeake Health Aberdeen (UMUCH)</t>
+  </si>
+  <si>
+    <t>Upper Chesapeake Medical Center (UMUCH)</t>
+  </si>
+  <si>
+    <t>Western Maryland (UPMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Oak Medical Center (Adventist) </t>
+  </si>
+  <si>
+    <t>Removed From MIEMSS Hospital List</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy\ h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1231,8 +1381,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,8 +1437,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1318,23 +1492,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1411,8 +1574,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1755,7 +1944,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:G53"/>
     </sheetView>
   </sheetViews>
@@ -5582,11 +5771,4238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A1FD6C-9B1E-3E45-A4EA-84B39ED0DB64}">
+  <dimension ref="A1:Z58"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="3" width="54.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="10" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1640625" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5" customWidth="1"/>
+    <col min="18" max="18" width="9.5" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="28.5" customWidth="1"/>
+    <col min="21" max="21" width="24.33203125" customWidth="1"/>
+    <col min="22" max="22" width="32.1640625" customWidth="1"/>
+    <col min="23" max="23" width="22.5" customWidth="1"/>
+    <col min="24" max="24" width="16.83203125" customWidth="1"/>
+    <col min="25" max="25" width="20.5" customWidth="1"/>
+    <col min="26" max="26" width="32.5" customWidth="1"/>
+    <col min="30" max="30" width="32.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="10" customFormat="1" ht="74.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="16"/>
+      <c r="T1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1">
+        <v>45748.263601724539</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="32">
+        <v>50</v>
+      </c>
+      <c r="H2" s="32">
+        <v>30</v>
+      </c>
+      <c r="I2" s="32">
+        <v>30</v>
+      </c>
+      <c r="J2" s="32">
+        <v>28</v>
+      </c>
+      <c r="K2" s="32">
+        <v>0</v>
+      </c>
+      <c r="L2" s="32">
+        <v>0</v>
+      </c>
+      <c r="M2" s="32">
+        <v>0</v>
+      </c>
+      <c r="N2" s="32">
+        <v>398</v>
+      </c>
+      <c r="O2" s="32">
+        <v>398</v>
+      </c>
+      <c r="P2" s="32">
+        <v>341</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>8</v>
+      </c>
+      <c r="R2" s="32">
+        <f>SUM(H2,K2,N2,Q2)</f>
+        <v>436</v>
+      </c>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32">
+        <v>8</v>
+      </c>
+      <c r="U2" s="32">
+        <v>2</v>
+      </c>
+      <c r="V2" s="32">
+        <v>5</v>
+      </c>
+      <c r="W2" s="32">
+        <v>0</v>
+      </c>
+      <c r="X2" s="32">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1">
+        <v>45748.262722997686</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="32">
+        <v>7</v>
+      </c>
+      <c r="H3" s="32">
+        <v>8</v>
+      </c>
+      <c r="I3" s="32">
+        <v>8</v>
+      </c>
+      <c r="J3" s="32">
+        <v>5</v>
+      </c>
+      <c r="K3" s="32">
+        <v>0</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0</v>
+      </c>
+      <c r="N3" s="32">
+        <v>51</v>
+      </c>
+      <c r="O3" s="32">
+        <v>51</v>
+      </c>
+      <c r="P3" s="32">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>0</v>
+      </c>
+      <c r="R3" s="32">
+        <f t="shared" ref="R3:R44" si="0">SUM(H3,K3,N3,Q3)</f>
+        <v>59</v>
+      </c>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32">
+        <v>0</v>
+      </c>
+      <c r="U3" s="32">
+        <v>0</v>
+      </c>
+      <c r="V3" s="32">
+        <v>0</v>
+      </c>
+      <c r="W3" s="32">
+        <v>0</v>
+      </c>
+      <c r="X3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1">
+        <v>45748.294303518516</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="32">
+        <v>62</v>
+      </c>
+      <c r="H4" s="32">
+        <v>67</v>
+      </c>
+      <c r="I4" s="32">
+        <v>42</v>
+      </c>
+      <c r="J4" s="32">
+        <v>40</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0</v>
+      </c>
+      <c r="L4" s="32">
+        <v>0</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0</v>
+      </c>
+      <c r="N4" s="32">
+        <v>307</v>
+      </c>
+      <c r="O4" s="32">
+        <v>189</v>
+      </c>
+      <c r="P4" s="32">
+        <v>203</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>10</v>
+      </c>
+      <c r="R4" s="32">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32">
+        <v>8</v>
+      </c>
+      <c r="U4" s="32">
+        <v>3</v>
+      </c>
+      <c r="V4" s="32">
+        <v>22</v>
+      </c>
+      <c r="W4" s="32">
+        <v>1</v>
+      </c>
+      <c r="X4" s="32">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1">
+        <v>45748.258804618054</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="32">
+        <v>9</v>
+      </c>
+      <c r="H5" s="32">
+        <v>8</v>
+      </c>
+      <c r="I5" s="32">
+        <v>4</v>
+      </c>
+      <c r="J5" s="32">
+        <v>3</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="32">
+        <v>72</v>
+      </c>
+      <c r="O5" s="32">
+        <v>65</v>
+      </c>
+      <c r="P5" s="32">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>1</v>
+      </c>
+      <c r="R5" s="32">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32">
+        <v>1</v>
+      </c>
+      <c r="U5" s="32">
+        <v>1</v>
+      </c>
+      <c r="V5" s="32">
+        <v>0</v>
+      </c>
+      <c r="W5" s="32">
+        <v>0</v>
+      </c>
+      <c r="X5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1">
+        <v>45748.377067222224</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="32">
+        <v>56</v>
+      </c>
+      <c r="H6" s="32">
+        <v>40</v>
+      </c>
+      <c r="I6" s="32">
+        <v>33</v>
+      </c>
+      <c r="J6" s="32">
+        <v>30</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="32">
+        <v>129</v>
+      </c>
+      <c r="O6" s="32">
+        <v>129</v>
+      </c>
+      <c r="P6" s="32">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>0</v>
+      </c>
+      <c r="R6" s="32">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32">
+        <v>0</v>
+      </c>
+      <c r="U6" s="32">
+        <v>0</v>
+      </c>
+      <c r="V6" s="32">
+        <v>16</v>
+      </c>
+      <c r="W6" s="32">
+        <v>3</v>
+      </c>
+      <c r="X6" s="32">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1">
+        <v>45748.368565729164</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="32">
+        <v>27</v>
+      </c>
+      <c r="H7" s="32">
+        <v>10</v>
+      </c>
+      <c r="I7" s="32">
+        <v>10</v>
+      </c>
+      <c r="J7" s="32">
+        <v>9</v>
+      </c>
+      <c r="K7" s="32">
+        <v>0</v>
+      </c>
+      <c r="L7" s="32">
+        <v>0</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="32">
+        <v>186</v>
+      </c>
+      <c r="O7" s="32">
+        <v>148</v>
+      </c>
+      <c r="P7" s="32">
+        <v>128</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>8</v>
+      </c>
+      <c r="R7" s="32">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32">
+        <v>4</v>
+      </c>
+      <c r="U7" s="32">
+        <v>1</v>
+      </c>
+      <c r="V7" s="32">
+        <v>6</v>
+      </c>
+      <c r="W7" s="32">
+        <v>0</v>
+      </c>
+      <c r="X7" s="32">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1">
+        <v>45748.359153888887</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="32">
+        <v>40</v>
+      </c>
+      <c r="H8" s="32">
+        <v>10</v>
+      </c>
+      <c r="I8" s="32">
+        <v>6</v>
+      </c>
+      <c r="J8" s="32">
+        <v>6</v>
+      </c>
+      <c r="K8" s="32">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="32">
+        <v>104</v>
+      </c>
+      <c r="O8" s="32">
+        <v>94</v>
+      </c>
+      <c r="P8" s="32">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>2</v>
+      </c>
+      <c r="R8" s="32">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32">
+        <v>1</v>
+      </c>
+      <c r="U8" s="32">
+        <v>0</v>
+      </c>
+      <c r="V8" s="32">
+        <v>9</v>
+      </c>
+      <c r="W8" s="32">
+        <v>0</v>
+      </c>
+      <c r="X8" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1">
+        <v>45748.269224467593</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="32">
+        <v>2</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
+        <v>0</v>
+      </c>
+      <c r="K9" s="32">
+        <v>0</v>
+      </c>
+      <c r="L9" s="32">
+        <v>0</v>
+      </c>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="32">
+        <v>15</v>
+      </c>
+      <c r="O9" s="32">
+        <v>15</v>
+      </c>
+      <c r="P9" s="32">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>0</v>
+      </c>
+      <c r="R9" s="32">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32">
+        <v>0</v>
+      </c>
+      <c r="U9" s="32">
+        <v>0</v>
+      </c>
+      <c r="V9" s="32">
+        <v>0</v>
+      </c>
+      <c r="W9" s="32">
+        <v>0</v>
+      </c>
+      <c r="X9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1">
+        <v>45748.358314467594</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="32">
+        <v>26</v>
+      </c>
+      <c r="H10" s="32">
+        <v>17</v>
+      </c>
+      <c r="I10" s="32">
+        <v>12</v>
+      </c>
+      <c r="J10" s="32">
+        <v>11</v>
+      </c>
+      <c r="K10" s="32">
+        <v>0</v>
+      </c>
+      <c r="L10" s="32">
+        <v>0</v>
+      </c>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="32">
+        <v>205</v>
+      </c>
+      <c r="O10" s="32">
+        <v>175</v>
+      </c>
+      <c r="P10" s="32">
+        <v>171</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>0</v>
+      </c>
+      <c r="R10" s="32">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32">
+        <v>0</v>
+      </c>
+      <c r="U10" s="32">
+        <v>0</v>
+      </c>
+      <c r="V10" s="32">
+        <v>1</v>
+      </c>
+      <c r="W10" s="32">
+        <v>0</v>
+      </c>
+      <c r="X10" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1">
+        <v>45748.413123229169</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="32">
+        <v>18</v>
+      </c>
+      <c r="H11" s="32">
+        <v>10</v>
+      </c>
+      <c r="I11" s="32">
+        <v>9</v>
+      </c>
+      <c r="J11" s="32">
+        <v>6</v>
+      </c>
+      <c r="K11" s="32">
+        <v>0</v>
+      </c>
+      <c r="L11" s="32">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="32">
+        <v>124</v>
+      </c>
+      <c r="O11" s="32">
+        <v>113</v>
+      </c>
+      <c r="P11" s="32">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>5</v>
+      </c>
+      <c r="R11" s="32">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32">
+        <v>5</v>
+      </c>
+      <c r="U11" s="32">
+        <v>0</v>
+      </c>
+      <c r="V11" s="32">
+        <v>0</v>
+      </c>
+      <c r="W11" s="32">
+        <v>0</v>
+      </c>
+      <c r="X11" s="32">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1">
+        <v>45748.362457465279</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="32">
+        <v>16</v>
+      </c>
+      <c r="H12" s="32">
+        <v>8</v>
+      </c>
+      <c r="I12" s="32">
+        <v>7</v>
+      </c>
+      <c r="J12" s="32">
+        <v>7</v>
+      </c>
+      <c r="K12" s="32">
+        <v>0</v>
+      </c>
+      <c r="L12" s="32">
+        <v>0</v>
+      </c>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="32">
+        <v>33</v>
+      </c>
+      <c r="O12" s="32">
+        <v>30</v>
+      </c>
+      <c r="P12" s="32">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>0</v>
+      </c>
+      <c r="R12" s="32">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32">
+        <v>0</v>
+      </c>
+      <c r="U12" s="32">
+        <v>0</v>
+      </c>
+      <c r="V12" s="32">
+        <v>0</v>
+      </c>
+      <c r="W12" s="32">
+        <v>0</v>
+      </c>
+      <c r="X12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1">
+        <v>45748.35887747685</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="32">
+        <v>84</v>
+      </c>
+      <c r="H13" s="32">
+        <v>42</v>
+      </c>
+      <c r="I13" s="32">
+        <v>42</v>
+      </c>
+      <c r="J13" s="32">
+        <v>41</v>
+      </c>
+      <c r="K13" s="32">
+        <v>0</v>
+      </c>
+      <c r="L13" s="32">
+        <v>0</v>
+      </c>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="32">
+        <v>262</v>
+      </c>
+      <c r="O13" s="32">
+        <v>262</v>
+      </c>
+      <c r="P13" s="32">
+        <v>262</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>0</v>
+      </c>
+      <c r="R13" s="32">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32">
+        <v>0</v>
+      </c>
+      <c r="U13" s="32">
+        <v>0</v>
+      </c>
+      <c r="V13" s="32">
+        <v>20</v>
+      </c>
+      <c r="W13" s="32">
+        <v>0</v>
+      </c>
+      <c r="X13" s="32">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1">
+        <v>45748.310541527775</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="32">
+        <v>32</v>
+      </c>
+      <c r="H14" s="32">
+        <v>20</v>
+      </c>
+      <c r="I14" s="32">
+        <v>14</v>
+      </c>
+      <c r="J14" s="32">
+        <v>13</v>
+      </c>
+      <c r="K14" s="32">
+        <v>0</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0</v>
+      </c>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="32">
+        <v>220</v>
+      </c>
+      <c r="O14" s="32">
+        <v>220</v>
+      </c>
+      <c r="P14" s="32">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>6</v>
+      </c>
+      <c r="R14" s="32">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32">
+        <v>6</v>
+      </c>
+      <c r="U14" s="32">
+        <v>1</v>
+      </c>
+      <c r="V14" s="32">
+        <v>4</v>
+      </c>
+      <c r="W14" s="32">
+        <v>0</v>
+      </c>
+      <c r="X14" s="32">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1">
+        <v>45747.419491493056</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="32">
+        <v>10</v>
+      </c>
+      <c r="H15" s="32">
+        <v>4</v>
+      </c>
+      <c r="I15" s="32">
+        <v>4</v>
+      </c>
+      <c r="J15" s="32">
+        <v>2</v>
+      </c>
+      <c r="K15" s="32">
+        <v>0</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0</v>
+      </c>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
+        <v>41</v>
+      </c>
+      <c r="O15" s="32">
+        <v>41</v>
+      </c>
+      <c r="P15" s="32">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>0</v>
+      </c>
+      <c r="R15" s="32">
+        <f>SUM(H15,K15,N15,Q15)</f>
+        <v>45</v>
+      </c>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32">
+        <v>0</v>
+      </c>
+      <c r="U15" s="32">
+        <v>0</v>
+      </c>
+      <c r="V15" s="32">
+        <v>0</v>
+      </c>
+      <c r="W15" s="32">
+        <v>0</v>
+      </c>
+      <c r="X15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1">
+        <v>45748.260227534724</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="32">
+        <v>26</v>
+      </c>
+      <c r="H16" s="32">
+        <v>16</v>
+      </c>
+      <c r="I16" s="32">
+        <v>12</v>
+      </c>
+      <c r="J16" s="32">
+        <v>10</v>
+      </c>
+      <c r="K16" s="32">
+        <v>0</v>
+      </c>
+      <c r="L16" s="32">
+        <v>0</v>
+      </c>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="32">
+        <v>177</v>
+      </c>
+      <c r="O16" s="32">
+        <v>156</v>
+      </c>
+      <c r="P16" s="32">
+        <v>147</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>0</v>
+      </c>
+      <c r="R16" s="32">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32">
+        <v>0</v>
+      </c>
+      <c r="U16" s="32">
+        <v>0</v>
+      </c>
+      <c r="V16" s="32">
+        <v>2</v>
+      </c>
+      <c r="W16" s="32">
+        <v>0</v>
+      </c>
+      <c r="X16" s="32">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1">
+        <v>45744.268898483795</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="32">
+        <v>8</v>
+      </c>
+      <c r="H17" s="32">
+        <v>0</v>
+      </c>
+      <c r="I17" s="32">
+        <v>0</v>
+      </c>
+      <c r="J17" s="32">
+        <v>0</v>
+      </c>
+      <c r="K17" s="32">
+        <v>0</v>
+      </c>
+      <c r="L17" s="32">
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32">
+        <v>10</v>
+      </c>
+      <c r="O17" s="32">
+        <v>5</v>
+      </c>
+      <c r="P17" s="32">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>0</v>
+      </c>
+      <c r="R17" s="32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32">
+        <v>0</v>
+      </c>
+      <c r="U17" s="32">
+        <v>0</v>
+      </c>
+      <c r="V17" s="32">
+        <v>3</v>
+      </c>
+      <c r="W17" s="32">
+        <v>0</v>
+      </c>
+      <c r="X17" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="32">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1">
+        <v>45748.396581620371</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="32">
+        <v>47</v>
+      </c>
+      <c r="H18" s="32">
+        <v>24</v>
+      </c>
+      <c r="I18" s="32">
+        <v>24</v>
+      </c>
+      <c r="J18" s="32">
+        <v>13</v>
+      </c>
+      <c r="K18" s="32">
+        <v>0</v>
+      </c>
+      <c r="L18" s="32">
+        <v>0</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="32">
+        <v>200</v>
+      </c>
+      <c r="O18" s="32">
+        <v>200</v>
+      </c>
+      <c r="P18" s="32">
+        <v>154</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>9</v>
+      </c>
+      <c r="R18" s="32">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32">
+        <v>9</v>
+      </c>
+      <c r="U18" s="32">
+        <v>2</v>
+      </c>
+      <c r="V18" s="32">
+        <v>0</v>
+      </c>
+      <c r="W18" s="32">
+        <v>0</v>
+      </c>
+      <c r="X18" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="32">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1">
+        <v>45748.266301192132</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="32">
+        <v>22</v>
+      </c>
+      <c r="H19" s="32">
+        <v>24</v>
+      </c>
+      <c r="I19" s="32">
+        <v>22</v>
+      </c>
+      <c r="J19" s="32">
+        <v>20</v>
+      </c>
+      <c r="K19" s="32">
+        <v>0</v>
+      </c>
+      <c r="L19" s="32">
+        <v>0</v>
+      </c>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="32">
+        <v>78</v>
+      </c>
+      <c r="O19" s="32">
+        <v>78</v>
+      </c>
+      <c r="P19" s="32">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>0</v>
+      </c>
+      <c r="R19" s="32">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32">
+        <v>0</v>
+      </c>
+      <c r="U19" s="32">
+        <v>0</v>
+      </c>
+      <c r="V19" s="32">
+        <v>0</v>
+      </c>
+      <c r="W19" s="32">
+        <v>0</v>
+      </c>
+      <c r="X19" s="32">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1">
+        <v>45748.271861747686</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="32">
+        <v>18</v>
+      </c>
+      <c r="H20" s="32">
+        <v>15</v>
+      </c>
+      <c r="I20" s="32">
+        <v>15</v>
+      </c>
+      <c r="J20" s="32">
+        <v>12</v>
+      </c>
+      <c r="K20" s="32">
+        <v>0</v>
+      </c>
+      <c r="L20" s="32">
+        <v>0</v>
+      </c>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="32">
+        <v>68</v>
+      </c>
+      <c r="O20" s="32">
+        <v>68</v>
+      </c>
+      <c r="P20" s="32">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>0</v>
+      </c>
+      <c r="R20" s="32">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32">
+        <v>0</v>
+      </c>
+      <c r="U20" s="32">
+        <v>0</v>
+      </c>
+      <c r="V20" s="32">
+        <v>9</v>
+      </c>
+      <c r="W20" s="32">
+        <v>0</v>
+      </c>
+      <c r="X20" s="32">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="32">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1">
+        <v>45748.322134930553</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="32">
+        <v>50</v>
+      </c>
+      <c r="H21" s="32">
+        <v>50</v>
+      </c>
+      <c r="I21" s="32">
+        <v>39</v>
+      </c>
+      <c r="J21" s="32">
+        <v>39</v>
+      </c>
+      <c r="K21" s="32">
+        <v>0</v>
+      </c>
+      <c r="L21" s="32">
+        <v>0</v>
+      </c>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="32">
+        <v>265</v>
+      </c>
+      <c r="O21" s="32">
+        <v>264</v>
+      </c>
+      <c r="P21" s="32">
+        <v>264</v>
+      </c>
+      <c r="Q21" s="32">
+        <v>10</v>
+      </c>
+      <c r="R21" s="32">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32">
+        <v>4</v>
+      </c>
+      <c r="U21" s="32">
+        <v>4</v>
+      </c>
+      <c r="V21" s="32">
+        <v>2</v>
+      </c>
+      <c r="W21" s="32">
+        <v>0</v>
+      </c>
+      <c r="X21" s="32">
+        <v>11</v>
+      </c>
+      <c r="Y21" s="32">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1">
+        <v>45748.346533634256</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="32">
+        <v>65</v>
+      </c>
+      <c r="H22" s="32">
+        <v>35</v>
+      </c>
+      <c r="I22" s="32">
+        <v>27</v>
+      </c>
+      <c r="J22" s="32">
+        <v>21</v>
+      </c>
+      <c r="K22" s="32">
+        <v>0</v>
+      </c>
+      <c r="L22" s="32">
+        <v>0</v>
+      </c>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="32">
+        <v>185</v>
+      </c>
+      <c r="O22" s="32">
+        <v>156</v>
+      </c>
+      <c r="P22" s="32">
+        <v>159</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>6</v>
+      </c>
+      <c r="R22" s="32">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32">
+        <v>6</v>
+      </c>
+      <c r="U22" s="32">
+        <v>1</v>
+      </c>
+      <c r="V22" s="32">
+        <v>37</v>
+      </c>
+      <c r="W22" s="32">
+        <v>0</v>
+      </c>
+      <c r="X22" s="32">
+        <v>36</v>
+      </c>
+      <c r="Y22" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="1">
+        <v>45748.346584733794</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="32">
+        <v>54</v>
+      </c>
+      <c r="H23" s="32">
+        <v>52</v>
+      </c>
+      <c r="I23" s="32">
+        <v>55</v>
+      </c>
+      <c r="J23" s="32">
+        <v>41</v>
+      </c>
+      <c r="K23" s="32">
+        <v>0</v>
+      </c>
+      <c r="L23" s="32">
+        <v>0</v>
+      </c>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="32">
+        <v>279</v>
+      </c>
+      <c r="O23" s="32">
+        <v>232</v>
+      </c>
+      <c r="P23" s="32">
+        <v>213</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>31</v>
+      </c>
+      <c r="R23" s="32">
+        <f t="shared" si="0"/>
+        <v>362</v>
+      </c>
+      <c r="S23" s="34"/>
+      <c r="T23" s="32">
+        <v>15</v>
+      </c>
+      <c r="U23" s="32">
+        <v>7</v>
+      </c>
+      <c r="V23" s="32">
+        <v>27</v>
+      </c>
+      <c r="W23" s="32">
+        <v>0</v>
+      </c>
+      <c r="X23" s="32">
+        <v>27</v>
+      </c>
+      <c r="Y23" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="1">
+        <v>45748.346584733794</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="32">
+        <v>108</v>
+      </c>
+      <c r="H24" s="32">
+        <v>120</v>
+      </c>
+      <c r="I24" s="32">
+        <v>112</v>
+      </c>
+      <c r="J24" s="32">
+        <v>99</v>
+      </c>
+      <c r="K24" s="32">
+        <v>40</v>
+      </c>
+      <c r="L24" s="32">
+        <v>37</v>
+      </c>
+      <c r="M24" s="32">
+        <v>37</v>
+      </c>
+      <c r="N24" s="32">
+        <v>614</v>
+      </c>
+      <c r="O24" s="32">
+        <v>600</v>
+      </c>
+      <c r="P24" s="32">
+        <v>552</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>125</v>
+      </c>
+      <c r="R24" s="32">
+        <f t="shared" si="0"/>
+        <v>899</v>
+      </c>
+      <c r="S24" s="34"/>
+      <c r="T24" s="32">
+        <v>112</v>
+      </c>
+      <c r="U24" s="32">
+        <v>107</v>
+      </c>
+      <c r="V24" s="32">
+        <v>43</v>
+      </c>
+      <c r="W24" s="32">
+        <v>0</v>
+      </c>
+      <c r="X24" s="32">
+        <v>37</v>
+      </c>
+      <c r="Y24" s="32">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="1">
+        <v>45748.400203634257</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="32">
+        <v>37</v>
+      </c>
+      <c r="H25" s="32">
+        <v>32</v>
+      </c>
+      <c r="I25" s="32">
+        <v>12</v>
+      </c>
+      <c r="J25" s="32">
+        <v>12</v>
+      </c>
+      <c r="K25" s="32">
+        <v>0</v>
+      </c>
+      <c r="L25" s="32">
+        <v>0</v>
+      </c>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="32">
+        <v>214</v>
+      </c>
+      <c r="O25" s="32">
+        <v>155</v>
+      </c>
+      <c r="P25" s="32">
+        <v>129</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>0</v>
+      </c>
+      <c r="R25" s="32">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32">
+        <v>0</v>
+      </c>
+      <c r="U25" s="32">
+        <v>0</v>
+      </c>
+      <c r="V25" s="32">
+        <v>0</v>
+      </c>
+      <c r="W25" s="32">
+        <v>0</v>
+      </c>
+      <c r="X25" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="1">
+        <v>45744.288614745368</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="32">
+        <v>38</v>
+      </c>
+      <c r="H26" s="32">
+        <v>24</v>
+      </c>
+      <c r="I26" s="32">
+        <v>22</v>
+      </c>
+      <c r="J26" s="32">
+        <v>21</v>
+      </c>
+      <c r="K26" s="32">
+        <v>0</v>
+      </c>
+      <c r="L26" s="32">
+        <v>0</v>
+      </c>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="32">
+        <v>237</v>
+      </c>
+      <c r="O26" s="32">
+        <v>218</v>
+      </c>
+      <c r="P26" s="32">
+        <v>218</v>
+      </c>
+      <c r="Q26" s="32">
+        <v>2</v>
+      </c>
+      <c r="R26" s="32">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32">
+        <v>2</v>
+      </c>
+      <c r="U26" s="32">
+        <v>2</v>
+      </c>
+      <c r="V26" s="32">
+        <v>0</v>
+      </c>
+      <c r="W26" s="32">
+        <v>0</v>
+      </c>
+      <c r="X26" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="1">
+        <v>45748.339661388891</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="32">
+        <v>16</v>
+      </c>
+      <c r="H27" s="32">
+        <v>18</v>
+      </c>
+      <c r="I27" s="32">
+        <v>14</v>
+      </c>
+      <c r="J27" s="32">
+        <v>13</v>
+      </c>
+      <c r="K27" s="32">
+        <v>0</v>
+      </c>
+      <c r="L27" s="32">
+        <v>0</v>
+      </c>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="32">
+        <v>55</v>
+      </c>
+      <c r="O27" s="32">
+        <v>55</v>
+      </c>
+      <c r="P27" s="32">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>0</v>
+      </c>
+      <c r="R27" s="32">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32">
+        <v>0</v>
+      </c>
+      <c r="U27" s="32">
+        <v>0</v>
+      </c>
+      <c r="V27" s="32">
+        <v>1</v>
+      </c>
+      <c r="W27" s="32">
+        <v>0</v>
+      </c>
+      <c r="X27" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1">
+        <v>45748.309995682874</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="32">
+        <v>9</v>
+      </c>
+      <c r="H28" s="32">
+        <v>12</v>
+      </c>
+      <c r="I28" s="32">
+        <v>6</v>
+      </c>
+      <c r="J28" s="32">
+        <v>5</v>
+      </c>
+      <c r="K28" s="32">
+        <v>0</v>
+      </c>
+      <c r="L28" s="32">
+        <v>0</v>
+      </c>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="32">
+        <v>120</v>
+      </c>
+      <c r="O28" s="32">
+        <v>98</v>
+      </c>
+      <c r="P28" s="32">
+        <v>98</v>
+      </c>
+      <c r="Q28" s="32">
+        <v>2</v>
+      </c>
+      <c r="R28" s="32">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32">
+        <v>2</v>
+      </c>
+      <c r="U28" s="32">
+        <v>1</v>
+      </c>
+      <c r="V28" s="32">
+        <v>0</v>
+      </c>
+      <c r="W28" s="32">
+        <v>0</v>
+      </c>
+      <c r="X28" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="1">
+        <v>45748.298754074072</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="32">
+        <v>36</v>
+      </c>
+      <c r="H29" s="32">
+        <v>16</v>
+      </c>
+      <c r="I29" s="32">
+        <v>8</v>
+      </c>
+      <c r="J29" s="32">
+        <v>8</v>
+      </c>
+      <c r="K29" s="32">
+        <v>0</v>
+      </c>
+      <c r="L29" s="32">
+        <v>0</v>
+      </c>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="32">
+        <v>138</v>
+      </c>
+      <c r="O29" s="32">
+        <v>130</v>
+      </c>
+      <c r="P29" s="32">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="32">
+        <v>0</v>
+      </c>
+      <c r="R29" s="32">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32">
+        <v>0</v>
+      </c>
+      <c r="U29" s="32">
+        <v>0</v>
+      </c>
+      <c r="V29" s="32">
+        <v>11</v>
+      </c>
+      <c r="W29" s="32">
+        <v>0</v>
+      </c>
+      <c r="X29" s="32">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="32">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1">
+        <v>45747.375874849538</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="32">
+        <v>79</v>
+      </c>
+      <c r="H30" s="32">
+        <v>36</v>
+      </c>
+      <c r="I30" s="32">
+        <v>36</v>
+      </c>
+      <c r="J30" s="32">
+        <v>28</v>
+      </c>
+      <c r="K30" s="32">
+        <v>0</v>
+      </c>
+      <c r="L30" s="32">
+        <v>0</v>
+      </c>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="N30" s="32">
+        <v>269</v>
+      </c>
+      <c r="O30" s="32">
+        <v>269</v>
+      </c>
+      <c r="P30" s="32">
+        <v>196</v>
+      </c>
+      <c r="Q30" s="32">
+        <v>6</v>
+      </c>
+      <c r="R30" s="32">
+        <f t="shared" si="0"/>
+        <v>311</v>
+      </c>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32">
+        <v>6</v>
+      </c>
+      <c r="U30" s="32">
+        <v>0</v>
+      </c>
+      <c r="V30" s="32">
+        <v>23</v>
+      </c>
+      <c r="W30" s="32">
+        <v>3</v>
+      </c>
+      <c r="X30" s="32">
+        <v>16</v>
+      </c>
+      <c r="Y30" s="32">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="1">
+        <v>45748.263601724539</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="32">
+        <v>36</v>
+      </c>
+      <c r="H31" s="32">
+        <v>26</v>
+      </c>
+      <c r="I31" s="32">
+        <v>20</v>
+      </c>
+      <c r="J31" s="32">
+        <v>22</v>
+      </c>
+      <c r="K31" s="32">
+        <v>0</v>
+      </c>
+      <c r="L31" s="32">
+        <v>0</v>
+      </c>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="32">
+        <v>194</v>
+      </c>
+      <c r="O31" s="32">
+        <v>194</v>
+      </c>
+      <c r="P31" s="32">
+        <v>194</v>
+      </c>
+      <c r="Q31" s="32">
+        <v>17</v>
+      </c>
+      <c r="R31" s="32">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32">
+        <v>8</v>
+      </c>
+      <c r="U31" s="32">
+        <v>5</v>
+      </c>
+      <c r="V31" s="32">
+        <v>9</v>
+      </c>
+      <c r="W31" s="32">
+        <v>0</v>
+      </c>
+      <c r="X31" s="32">
+        <v>8</v>
+      </c>
+      <c r="Y31" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1">
+        <v>45748.265130474538</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="32">
+        <v>59</v>
+      </c>
+      <c r="H32" s="32">
+        <v>35</v>
+      </c>
+      <c r="I32" s="32">
+        <v>35</v>
+      </c>
+      <c r="J32" s="32">
+        <v>26</v>
+      </c>
+      <c r="K32" s="32">
+        <v>6</v>
+      </c>
+      <c r="L32" s="32">
+        <v>6</v>
+      </c>
+      <c r="M32" s="32">
+        <v>4</v>
+      </c>
+      <c r="N32" s="32">
+        <v>283</v>
+      </c>
+      <c r="O32" s="32">
+        <v>280</v>
+      </c>
+      <c r="P32" s="32">
+        <v>252</v>
+      </c>
+      <c r="Q32" s="32">
+        <v>20</v>
+      </c>
+      <c r="R32" s="32">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32">
+        <v>20</v>
+      </c>
+      <c r="U32" s="32">
+        <v>12</v>
+      </c>
+      <c r="V32" s="32">
+        <v>18</v>
+      </c>
+      <c r="W32" s="32">
+        <v>0</v>
+      </c>
+      <c r="X32" s="32">
+        <v>18</v>
+      </c>
+      <c r="Y32" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="1">
+        <v>45748.319511909722</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="32">
+        <v>45</v>
+      </c>
+      <c r="H33" s="32">
+        <v>30</v>
+      </c>
+      <c r="I33" s="32">
+        <v>30</v>
+      </c>
+      <c r="J33" s="32">
+        <v>25</v>
+      </c>
+      <c r="K33" s="32">
+        <v>0</v>
+      </c>
+      <c r="L33" s="32">
+        <v>0</v>
+      </c>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="32">
+        <v>149</v>
+      </c>
+      <c r="O33" s="32">
+        <v>149</v>
+      </c>
+      <c r="P33" s="32">
+        <v>130</v>
+      </c>
+      <c r="Q33" s="32">
+        <v>0</v>
+      </c>
+      <c r="R33" s="32">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32">
+        <v>0</v>
+      </c>
+      <c r="U33" s="32">
+        <v>0</v>
+      </c>
+      <c r="V33" s="32">
+        <v>2</v>
+      </c>
+      <c r="W33" s="32">
+        <v>2</v>
+      </c>
+      <c r="X33" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1">
+        <v>45733.452386539349</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="32">
+        <v>23</v>
+      </c>
+      <c r="H34" s="32">
+        <v>16</v>
+      </c>
+      <c r="I34" s="32">
+        <v>16</v>
+      </c>
+      <c r="J34" s="32">
+        <v>11</v>
+      </c>
+      <c r="K34" s="32">
+        <v>0</v>
+      </c>
+      <c r="L34" s="32">
+        <v>0</v>
+      </c>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="32">
+        <v>229</v>
+      </c>
+      <c r="O34" s="32">
+        <v>229</v>
+      </c>
+      <c r="P34" s="32">
+        <v>205</v>
+      </c>
+      <c r="Q34" s="32">
+        <v>8</v>
+      </c>
+      <c r="R34" s="32">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32">
+        <v>8</v>
+      </c>
+      <c r="U34" s="32">
+        <v>3</v>
+      </c>
+      <c r="V34" s="32">
+        <v>0</v>
+      </c>
+      <c r="W34" s="32">
+        <v>0</v>
+      </c>
+      <c r="X34" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="32">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="1">
+        <v>45720.238495370373</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="32">
+        <v>26</v>
+      </c>
+      <c r="H35" s="32">
+        <v>46</v>
+      </c>
+      <c r="I35" s="32">
+        <v>19</v>
+      </c>
+      <c r="J35" s="32">
+        <v>16</v>
+      </c>
+      <c r="K35" s="32">
+        <v>0</v>
+      </c>
+      <c r="L35" s="32">
+        <v>0</v>
+      </c>
+      <c r="M35" s="32">
+        <v>0</v>
+      </c>
+      <c r="N35" s="32">
+        <v>174</v>
+      </c>
+      <c r="O35" s="32">
+        <v>151</v>
+      </c>
+      <c r="P35" s="32">
+        <v>151</v>
+      </c>
+      <c r="Q35" s="32">
+        <v>8</v>
+      </c>
+      <c r="R35" s="32">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32">
+        <v>4</v>
+      </c>
+      <c r="U35" s="32">
+        <v>2</v>
+      </c>
+      <c r="V35" s="32">
+        <v>14</v>
+      </c>
+      <c r="W35" s="32">
+        <v>0</v>
+      </c>
+      <c r="X35" s="32">
+        <v>14</v>
+      </c>
+      <c r="Y35" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="1">
+        <v>45748.425648842589</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="32">
+        <v>40</v>
+      </c>
+      <c r="H36" s="32">
+        <v>9</v>
+      </c>
+      <c r="I36" s="32">
+        <v>9</v>
+      </c>
+      <c r="J36" s="32">
+        <v>9</v>
+      </c>
+      <c r="K36" s="32">
+        <v>0</v>
+      </c>
+      <c r="L36" s="32">
+        <v>0</v>
+      </c>
+      <c r="M36" s="32">
+        <v>0</v>
+      </c>
+      <c r="N36" s="32">
+        <v>94</v>
+      </c>
+      <c r="O36" s="32">
+        <v>94</v>
+      </c>
+      <c r="P36" s="32">
+        <v>94</v>
+      </c>
+      <c r="Q36" s="32">
+        <v>0</v>
+      </c>
+      <c r="R36" s="32">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32">
+        <v>0</v>
+      </c>
+      <c r="U36" s="32">
+        <v>0</v>
+      </c>
+      <c r="V36" s="32">
+        <v>0</v>
+      </c>
+      <c r="W36" s="32">
+        <v>0</v>
+      </c>
+      <c r="X36" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="1">
+        <v>45748.346660937503</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="32">
+        <v>29</v>
+      </c>
+      <c r="H37" s="32">
+        <v>24</v>
+      </c>
+      <c r="I37" s="32">
+        <v>23</v>
+      </c>
+      <c r="J37" s="32">
+        <v>21</v>
+      </c>
+      <c r="K37" s="32">
+        <v>4</v>
+      </c>
+      <c r="L37" s="32">
+        <v>4</v>
+      </c>
+      <c r="M37" s="32">
+        <v>0</v>
+      </c>
+      <c r="N37" s="32">
+        <v>231</v>
+      </c>
+      <c r="O37" s="32">
+        <v>228</v>
+      </c>
+      <c r="P37" s="32">
+        <v>182</v>
+      </c>
+      <c r="Q37" s="32">
+        <v>0</v>
+      </c>
+      <c r="R37" s="32">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32">
+        <v>0</v>
+      </c>
+      <c r="U37" s="32">
+        <v>0</v>
+      </c>
+      <c r="V37" s="32">
+        <v>16</v>
+      </c>
+      <c r="W37" s="32">
+        <v>1</v>
+      </c>
+      <c r="X37" s="32">
+        <v>14</v>
+      </c>
+      <c r="Y37" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="1">
+        <v>45748.262806284722</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="32">
+        <v>11</v>
+      </c>
+      <c r="H38" s="32">
+        <v>12</v>
+      </c>
+      <c r="I38" s="32">
+        <v>9</v>
+      </c>
+      <c r="J38" s="32">
+        <v>8</v>
+      </c>
+      <c r="K38" s="32">
+        <v>0</v>
+      </c>
+      <c r="L38" s="32">
+        <v>0</v>
+      </c>
+      <c r="M38" s="32">
+        <v>0</v>
+      </c>
+      <c r="N38" s="32">
+        <v>95</v>
+      </c>
+      <c r="O38" s="32">
+        <v>90</v>
+      </c>
+      <c r="P38" s="32">
+        <v>65</v>
+      </c>
+      <c r="Q38" s="32">
+        <v>0</v>
+      </c>
+      <c r="R38" s="32">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32">
+        <v>0</v>
+      </c>
+      <c r="U38" s="32">
+        <v>0</v>
+      </c>
+      <c r="V38" s="32">
+        <v>2</v>
+      </c>
+      <c r="W38" s="32">
+        <v>0</v>
+      </c>
+      <c r="X38" s="32">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="1">
+        <v>45748.260227534724</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="32">
+        <v>30</v>
+      </c>
+      <c r="H39" s="32">
+        <v>32</v>
+      </c>
+      <c r="I39" s="32">
+        <v>25</v>
+      </c>
+      <c r="J39" s="32">
+        <v>19</v>
+      </c>
+      <c r="K39" s="32">
+        <v>0</v>
+      </c>
+      <c r="L39" s="32">
+        <v>0</v>
+      </c>
+      <c r="M39" s="32">
+        <v>0</v>
+      </c>
+      <c r="N39" s="32">
+        <v>182</v>
+      </c>
+      <c r="O39" s="32">
+        <v>153</v>
+      </c>
+      <c r="P39" s="32">
+        <v>149</v>
+      </c>
+      <c r="Q39" s="32">
+        <v>0</v>
+      </c>
+      <c r="R39" s="32">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32">
+        <v>0</v>
+      </c>
+      <c r="U39" s="32">
+        <v>0</v>
+      </c>
+      <c r="V39" s="32">
+        <v>30</v>
+      </c>
+      <c r="W39" s="32">
+        <v>0</v>
+      </c>
+      <c r="X39" s="32">
+        <v>30</v>
+      </c>
+      <c r="Y39" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="1">
+        <v>45748.355029074075</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="32">
+        <v>61</v>
+      </c>
+      <c r="H40" s="32">
+        <v>168</v>
+      </c>
+      <c r="I40" s="32">
+        <v>155</v>
+      </c>
+      <c r="J40" s="32">
+        <v>145</v>
+      </c>
+      <c r="K40" s="32">
+        <v>15</v>
+      </c>
+      <c r="L40" s="32">
+        <v>13</v>
+      </c>
+      <c r="M40" s="32">
+        <v>11</v>
+      </c>
+      <c r="N40" s="32">
+        <v>389</v>
+      </c>
+      <c r="O40" s="32">
+        <v>368</v>
+      </c>
+      <c r="P40" s="32">
+        <v>364</v>
+      </c>
+      <c r="Q40" s="32">
+        <v>30</v>
+      </c>
+      <c r="R40" s="32">
+        <f t="shared" si="0"/>
+        <v>602</v>
+      </c>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32">
+        <v>26</v>
+      </c>
+      <c r="U40" s="32">
+        <v>22</v>
+      </c>
+      <c r="V40" s="32">
+        <v>31</v>
+      </c>
+      <c r="W40" s="32">
+        <v>0</v>
+      </c>
+      <c r="X40" s="32">
+        <v>31</v>
+      </c>
+      <c r="Y40" s="32">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="1">
+        <v>45748.299455925924</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="32">
+        <v>23</v>
+      </c>
+      <c r="H41" s="32">
+        <v>0</v>
+      </c>
+      <c r="I41" s="32">
+        <v>0</v>
+      </c>
+      <c r="J41" s="32">
+        <v>0</v>
+      </c>
+      <c r="K41" s="32">
+        <v>0</v>
+      </c>
+      <c r="L41" s="32">
+        <v>0</v>
+      </c>
+      <c r="M41" s="32">
+        <v>0</v>
+      </c>
+      <c r="N41" s="32">
+        <v>17</v>
+      </c>
+      <c r="O41" s="32">
+        <v>5</v>
+      </c>
+      <c r="P41" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="32">
+        <v>0</v>
+      </c>
+      <c r="R41" s="32">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32">
+        <v>0</v>
+      </c>
+      <c r="U41" s="32">
+        <v>0</v>
+      </c>
+      <c r="V41" s="32">
+        <v>6</v>
+      </c>
+      <c r="W41" s="32">
+        <v>0</v>
+      </c>
+      <c r="X41" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="32">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="1">
+        <v>45748.299455925924</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="32">
+        <v>54</v>
+      </c>
+      <c r="H42" s="32">
+        <v>14</v>
+      </c>
+      <c r="I42" s="32">
+        <v>14</v>
+      </c>
+      <c r="J42" s="32">
+        <v>13</v>
+      </c>
+      <c r="K42" s="32">
+        <v>0</v>
+      </c>
+      <c r="L42" s="32">
+        <v>0</v>
+      </c>
+      <c r="M42" s="32">
+        <v>0</v>
+      </c>
+      <c r="N42" s="32">
+        <v>214</v>
+      </c>
+      <c r="O42" s="32">
+        <v>214</v>
+      </c>
+      <c r="P42" s="32">
+        <v>214</v>
+      </c>
+      <c r="Q42" s="32">
+        <v>8</v>
+      </c>
+      <c r="R42" s="32">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32">
+        <v>4</v>
+      </c>
+      <c r="U42" s="32">
+        <v>3</v>
+      </c>
+      <c r="V42" s="32">
+        <v>34</v>
+      </c>
+      <c r="W42" s="32">
+        <v>0</v>
+      </c>
+      <c r="X42" s="32">
+        <v>38</v>
+      </c>
+      <c r="Y42" s="32">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="1">
+        <v>45748.261620810183</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="32">
+        <v>23</v>
+      </c>
+      <c r="H43" s="32">
+        <v>18</v>
+      </c>
+      <c r="I43" s="32">
+        <v>18</v>
+      </c>
+      <c r="J43" s="32">
+        <v>13</v>
+      </c>
+      <c r="K43" s="32">
+        <v>0</v>
+      </c>
+      <c r="L43" s="32">
+        <v>0</v>
+      </c>
+      <c r="M43" s="32">
+        <v>0</v>
+      </c>
+      <c r="N43" s="32">
+        <v>174</v>
+      </c>
+      <c r="O43" s="32">
+        <v>170</v>
+      </c>
+      <c r="P43" s="32">
+        <v>166</v>
+      </c>
+      <c r="Q43" s="32">
+        <v>0</v>
+      </c>
+      <c r="R43" s="32">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32">
+        <v>0</v>
+      </c>
+      <c r="U43" s="32">
+        <v>0</v>
+      </c>
+      <c r="V43" s="32">
+        <v>14</v>
+      </c>
+      <c r="W43" s="32">
+        <v>0</v>
+      </c>
+      <c r="X43" s="32">
+        <v>14</v>
+      </c>
+      <c r="Y43" s="32">
+        <v>2</v>
+      </c>
+      <c r="Z43" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="1">
+        <v>45748.297622881946</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="32">
+        <v>43</v>
+      </c>
+      <c r="H44" s="32">
+        <v>25</v>
+      </c>
+      <c r="I44" s="32">
+        <v>22</v>
+      </c>
+      <c r="J44" s="32">
+        <v>23</v>
+      </c>
+      <c r="K44" s="32">
+        <v>0</v>
+      </c>
+      <c r="L44" s="32">
+        <v>0</v>
+      </c>
+      <c r="M44" s="32">
+        <v>0</v>
+      </c>
+      <c r="N44" s="32">
+        <v>170</v>
+      </c>
+      <c r="O44" s="32">
+        <v>160</v>
+      </c>
+      <c r="P44" s="32">
+        <v>169</v>
+      </c>
+      <c r="Q44" s="32">
+        <v>0</v>
+      </c>
+      <c r="R44" s="32">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32">
+        <v>0</v>
+      </c>
+      <c r="U44" s="32">
+        <v>0</v>
+      </c>
+      <c r="V44" s="32">
+        <v>18</v>
+      </c>
+      <c r="W44" s="32">
+        <v>0</v>
+      </c>
+      <c r="X44" s="32">
+        <v>15</v>
+      </c>
+      <c r="Y44" s="32">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="1"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="1"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+    </row>
+    <row r="47" spans="1:26" s="39" customFormat="1">
+      <c r="A47" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="1">
+        <v>45744.448958692126</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="32">
+        <v>12</v>
+      </c>
+      <c r="H48" s="32">
+        <v>0</v>
+      </c>
+      <c r="I48" s="32">
+        <v>0</v>
+      </c>
+      <c r="J48" s="32">
+        <v>0</v>
+      </c>
+      <c r="K48" s="32">
+        <v>0</v>
+      </c>
+      <c r="L48" s="32">
+        <v>0</v>
+      </c>
+      <c r="M48" s="32">
+        <v>0</v>
+      </c>
+      <c r="N48" s="32">
+        <v>0</v>
+      </c>
+      <c r="O48" s="32">
+        <v>0</v>
+      </c>
+      <c r="P48" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="32">
+        <v>0</v>
+      </c>
+      <c r="R48" s="40">
+        <f t="shared" ref="R48:R54" si="1">SUM(H48,K48,N48,Q48)</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32">
+        <v>0</v>
+      </c>
+      <c r="U48" s="32">
+        <v>0</v>
+      </c>
+      <c r="V48" s="32">
+        <v>0</v>
+      </c>
+      <c r="W48" s="32">
+        <v>0</v>
+      </c>
+      <c r="X48" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="1">
+        <v>45748.413123229169</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="32">
+        <v>11</v>
+      </c>
+      <c r="H49" s="32">
+        <v>0</v>
+      </c>
+      <c r="I49" s="32">
+        <v>0</v>
+      </c>
+      <c r="J49" s="32">
+        <v>0</v>
+      </c>
+      <c r="K49" s="32">
+        <v>0</v>
+      </c>
+      <c r="L49" s="32">
+        <v>0</v>
+      </c>
+      <c r="M49" s="32">
+        <v>0</v>
+      </c>
+      <c r="N49" s="32">
+        <v>0</v>
+      </c>
+      <c r="O49" s="32">
+        <v>0</v>
+      </c>
+      <c r="P49" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="32">
+        <v>0</v>
+      </c>
+      <c r="R49" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32">
+        <v>0</v>
+      </c>
+      <c r="U49" s="32">
+        <v>0</v>
+      </c>
+      <c r="V49" s="32">
+        <v>1</v>
+      </c>
+      <c r="W49" s="32">
+        <v>0</v>
+      </c>
+      <c r="X49" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="1">
+        <v>45720.240624999999</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="32">
+        <v>17</v>
+      </c>
+      <c r="H50" s="32">
+        <v>0</v>
+      </c>
+      <c r="I50" s="32">
+        <v>0</v>
+      </c>
+      <c r="J50" s="32">
+        <v>0</v>
+      </c>
+      <c r="K50" s="32">
+        <v>0</v>
+      </c>
+      <c r="L50" s="32">
+        <v>0</v>
+      </c>
+      <c r="M50" s="32">
+        <v>0</v>
+      </c>
+      <c r="N50" s="32">
+        <v>0</v>
+      </c>
+      <c r="O50" s="32">
+        <v>0</v>
+      </c>
+      <c r="P50" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="32">
+        <v>0</v>
+      </c>
+      <c r="R50" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32">
+        <v>0</v>
+      </c>
+      <c r="U50" s="32">
+        <v>0</v>
+      </c>
+      <c r="V50" s="32">
+        <v>1</v>
+      </c>
+      <c r="W50" s="32">
+        <v>0</v>
+      </c>
+      <c r="X50" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="1">
+        <v>45720.239664351851</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="32">
+        <v>17</v>
+      </c>
+      <c r="H51" s="32">
+        <v>0</v>
+      </c>
+      <c r="I51" s="32">
+        <v>0</v>
+      </c>
+      <c r="J51" s="32">
+        <v>0</v>
+      </c>
+      <c r="K51" s="32">
+        <v>0</v>
+      </c>
+      <c r="L51" s="32">
+        <v>0</v>
+      </c>
+      <c r="M51" s="32">
+        <v>0</v>
+      </c>
+      <c r="N51" s="32">
+        <v>0</v>
+      </c>
+      <c r="O51" s="32">
+        <v>0</v>
+      </c>
+      <c r="P51" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="32">
+        <v>0</v>
+      </c>
+      <c r="R51" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32">
+        <v>0</v>
+      </c>
+      <c r="U51" s="32">
+        <v>0</v>
+      </c>
+      <c r="V51" s="32">
+        <v>1</v>
+      </c>
+      <c r="W51" s="32">
+        <v>1</v>
+      </c>
+      <c r="X51" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="1">
+        <v>45747.375874849538</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="32">
+        <v>4</v>
+      </c>
+      <c r="H52" s="32">
+        <v>0</v>
+      </c>
+      <c r="I52" s="32">
+        <v>0</v>
+      </c>
+      <c r="J52" s="32">
+        <v>0</v>
+      </c>
+      <c r="K52" s="32">
+        <v>0</v>
+      </c>
+      <c r="L52" s="32">
+        <v>0</v>
+      </c>
+      <c r="M52" s="32">
+        <v>0</v>
+      </c>
+      <c r="N52" s="32">
+        <v>0</v>
+      </c>
+      <c r="O52" s="32">
+        <v>0</v>
+      </c>
+      <c r="P52" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="32">
+        <v>0</v>
+      </c>
+      <c r="R52" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32">
+        <v>0</v>
+      </c>
+      <c r="U52" s="32">
+        <v>0</v>
+      </c>
+      <c r="V52" s="32">
+        <v>0</v>
+      </c>
+      <c r="W52" s="32">
+        <v>0</v>
+      </c>
+      <c r="X52" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="1">
+        <v>45748.413123229169</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="32">
+        <v>13</v>
+      </c>
+      <c r="H53" s="32">
+        <v>0</v>
+      </c>
+      <c r="I53" s="32">
+        <v>0</v>
+      </c>
+      <c r="J53" s="32">
+        <v>0</v>
+      </c>
+      <c r="K53" s="32">
+        <v>0</v>
+      </c>
+      <c r="L53" s="32">
+        <v>0</v>
+      </c>
+      <c r="M53" s="32">
+        <v>0</v>
+      </c>
+      <c r="N53" s="32">
+        <v>0</v>
+      </c>
+      <c r="O53" s="32">
+        <v>0</v>
+      </c>
+      <c r="P53" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="32">
+        <v>0</v>
+      </c>
+      <c r="R53" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32">
+        <v>0</v>
+      </c>
+      <c r="U53" s="32">
+        <v>0</v>
+      </c>
+      <c r="V53" s="32">
+        <v>0</v>
+      </c>
+      <c r="W53" s="32">
+        <v>0</v>
+      </c>
+      <c r="X53" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="1">
+        <v>45720.238495370373</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32">
+        <v>0</v>
+      </c>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="1">
+        <v>45748.323385219905</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="32">
+        <v>40</v>
+      </c>
+      <c r="H57" s="32">
+        <v>0</v>
+      </c>
+      <c r="I57" s="32">
+        <v>0</v>
+      </c>
+      <c r="J57" s="32">
+        <v>0</v>
+      </c>
+      <c r="K57" s="32">
+        <v>143</v>
+      </c>
+      <c r="L57" s="32">
+        <v>129</v>
+      </c>
+      <c r="M57" s="32">
+        <v>129</v>
+      </c>
+      <c r="N57" s="32">
+        <v>0</v>
+      </c>
+      <c r="O57" s="32">
+        <v>0</v>
+      </c>
+      <c r="P57" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="32">
+        <v>180</v>
+      </c>
+      <c r="R57" s="32">
+        <f>SUM(H57,K57,N57,Q57)</f>
+        <v>323</v>
+      </c>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32">
+        <v>154</v>
+      </c>
+      <c r="U57" s="32">
+        <v>154</v>
+      </c>
+      <c r="V57" s="32">
+        <v>7</v>
+      </c>
+      <c r="W57" s="32">
+        <v>2</v>
+      </c>
+      <c r="X57" s="32">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="1">
+        <v>45748.380994432868</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="32">
+        <v>24</v>
+      </c>
+      <c r="H58" s="32">
+        <v>40</v>
+      </c>
+      <c r="I58" s="32">
+        <v>16</v>
+      </c>
+      <c r="J58" s="32">
+        <v>8</v>
+      </c>
+      <c r="K58" s="32">
+        <v>7</v>
+      </c>
+      <c r="L58" s="32">
+        <v>4</v>
+      </c>
+      <c r="M58" s="32">
+        <v>2</v>
+      </c>
+      <c r="N58" s="32">
+        <v>159</v>
+      </c>
+      <c r="O58" s="32">
+        <v>93</v>
+      </c>
+      <c r="P58" s="32">
+        <v>66</v>
+      </c>
+      <c r="Q58" s="32">
+        <v>7</v>
+      </c>
+      <c r="R58" s="32">
+        <f>SUM(H58,K58,N58,Q58)</f>
+        <v>213</v>
+      </c>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32">
+        <v>7</v>
+      </c>
+      <c r="U58" s="32">
+        <v>4</v>
+      </c>
+      <c r="V58" s="32">
+        <v>0</v>
+      </c>
+      <c r="W58" s="32">
+        <v>0</v>
+      </c>
+      <c r="X58" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BF6AD9-A20B-6A4A-8D45-AB5A877A49FB}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5604,35 +10020,41 @@
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="22" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="25" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="25" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>314</v>
@@ -5640,65 +10062,83 @@
       <c r="C4" s="27" t="s">
         <v>22</v>
       </c>
+      <c r="D4">
+        <v>384</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="23" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="25" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="25" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="25" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="25" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>24</v>
       </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="25" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>306</v>
@@ -5706,21 +10146,27 @@
       <c r="C10" s="27" t="s">
         <v>27</v>
       </c>
+      <c r="D10">
+        <v>222</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="25" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>306</v>
@@ -5728,76 +10174,97 @@
       <c r="C12" s="27" t="s">
         <v>27</v>
       </c>
+      <c r="D12">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="25" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="25" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="25" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="25" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="25" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="25" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="23" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>315</v>
@@ -5805,65 +10272,83 @@
       <c r="C19" s="27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="25" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="25" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="B22" s="24" t="s">
+      <c r="C23" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>350</v>
-      </c>
       <c r="C24" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="25" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>315</v>
@@ -5871,203 +10356,274 @@
       <c r="C25" s="27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="23" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="B26" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>320</v>
-      </c>
       <c r="C27" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="25" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="25" t="s">
+      <c r="C29" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32">
         <v>344</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="26" t="s">
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="B31" s="24" t="s">
+      <c r="D33">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>318</v>
-      </c>
       <c r="C34" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="25" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="23" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="25" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="23" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="B40" s="24" t="s">
+      <c r="C41" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C40" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>315</v>
-      </c>
       <c r="C42" s="27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="25" t="s">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>309</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>43</v>
+      </c>
+      <c r="D43">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6075,7 +10631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6124B996-A432-6340-9DCC-BD0AF4F4EEBE}">
   <dimension ref="A1:D226"/>
   <sheetViews>
@@ -9262,7 +13818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DE9CA4-9503-F343-8836-CA02A970BD25}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9276,7 +13832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710174D2-E6CE-1547-ACCB-346C1A94474E}">
   <dimension ref="A1:G53"/>
   <sheetViews>
@@ -10283,7 +14839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/MIEMSS.xlsx
+++ b/MIEMSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joehaber/Desktop/Desktop/1. ActuariAI/Consulting/Lisa/Maps Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD4A636-AA82-B741-BCCD-019F43BB7039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73E25A1-1981-954D-AEBF-7163086BC36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="15640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,8 +22,9 @@
     <sheet name="Comments" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Acute Hospitals'!$A$1:$D$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MIEMSS - Daily Query Data Expor'!$A$1:$Y$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">'PAC Hospitals'!$A$1:$D$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PAC Hospitals'!$A$1:$D$226</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1497,7 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1603,6 +1604,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5774,8 +5779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A1FD6C-9B1E-3E45-A4EA-84B39ED0DB64}">
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F44"/>
+    <sheetView topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="R44" sqref="R1:R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10001,8 +10006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BF6AD9-A20B-6A4A-8D45-AB5A877A49FB}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10026,203 +10031,203 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>436</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="25" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="25" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>384</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="23" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>81</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="25" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>169</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="25" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>204</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="25" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="25" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="25" t="s">
-        <v>387</v>
+      <c r="A10" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>222</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>139</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="25" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="25" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D13">
-        <v>304</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="25" t="s">
-        <v>391</v>
+      <c r="A14" s="23" t="s">
+        <v>400</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>246</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="25" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>899</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="25" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>315</v>
@@ -10231,12 +10236,12 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>193</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="25" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>315</v>
@@ -10245,26 +10250,26 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="25" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D18">
-        <v>233</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="23" t="s">
-        <v>396</v>
+      <c r="A19" s="25" t="s">
+        <v>411</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>315</v>
@@ -10273,147 +10278,147 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>102</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="25" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>83</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="25" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>325</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="25" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D22">
-        <v>226</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="29" t="s">
-        <v>400</v>
+      <c r="A23" s="41" t="s">
+        <v>395</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D23">
-        <v>362</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="25" t="s">
-        <v>401</v>
+      <c r="A24" s="23" t="s">
+        <v>406</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D24">
-        <v>899</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="25" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D25">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="23" t="s">
-        <v>403</v>
+      <c r="A26" s="25" t="s">
+        <v>399</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>263</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="23" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="25" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="25" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -10431,92 +10436,92 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="23" t="s">
-        <v>408</v>
+      <c r="A31" s="25" t="s">
+        <v>379</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C31" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D31">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>22</v>
-      </c>
       <c r="D32">
-        <v>344</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="28" t="s">
-        <v>410</v>
+      <c r="A33" s="25" t="s">
+        <v>384</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D33">
-        <v>179</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="25" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>253</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="25" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>228</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="23" t="s">
-        <v>413</v>
+      <c r="A36" s="25" t="s">
+        <v>405</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D36">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="25" t="s">
-        <v>414</v>
+      <c r="A37" s="23" t="s">
+        <v>408</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>310</v>
@@ -10525,119 +10530,121 @@
         <v>27</v>
       </c>
       <c r="D37">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38">
-        <v>107</v>
-      </c>
-    </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>22</v>
+      <c r="A39" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="D39">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="25" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>602</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="23" t="s">
-        <v>418</v>
+      <c r="A41" s="25" t="s">
+        <v>389</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="25" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D42">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="25" t="s">
-        <v>420</v>
+      <c r="A43" s="28" t="s">
+        <v>410</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="C44" s="28" t="s">
+      <c r="A44" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D44">
-        <v>195</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D44" xr:uid="{71BF6AD9-A20B-6A4A-8D45-AB5A877A49FB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6124B996-A432-6340-9DCC-BD0AF4F4EEBE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10662,7 +10669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -10676,7 +10683,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -10690,7 +10697,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -10704,7 +10711,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -10718,7 +10725,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -10732,7 +10739,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -10746,7 +10753,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -10760,7 +10767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -10774,7 +10781,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -10788,7 +10795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -10802,7 +10809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -10816,7 +10823,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -10830,7 +10837,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -10844,7 +10851,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -10858,7 +10865,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -10872,7 +10879,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -10886,7 +10893,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -10900,7 +10907,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -10914,7 +10921,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -10928,7 +10935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -10942,7 +10949,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -10956,7 +10963,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -10970,7 +10977,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -10984,7 +10991,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -10998,7 +11005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -11012,7 +11019,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -11026,7 +11033,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -11040,7 +11047,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -11054,7 +11061,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -11068,7 +11075,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -11082,7 +11089,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -11096,7 +11103,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -11110,7 +11117,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -11124,7 +11131,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -11138,7 +11145,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -11152,7 +11159,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -11166,7 +11173,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -11180,7 +11187,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -11194,7 +11201,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -11208,7 +11215,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -11222,7 +11229,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -11236,7 +11243,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -11250,7 +11257,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -11264,7 +11271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -11278,7 +11285,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46" t="s">
         <v>124</v>
       </c>
@@ -11292,7 +11299,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" t="s">
         <v>125</v>
       </c>
@@ -11306,7 +11313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -11320,7 +11327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -11334,7 +11341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50" t="s">
         <v>128</v>
       </c>
@@ -11348,7 +11355,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -11362,7 +11369,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -11376,7 +11383,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -11390,7 +11397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -11404,7 +11411,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -11418,7 +11425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -11432,7 +11439,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1">
       <c r="A57" t="s">
         <v>135</v>
       </c>
@@ -11446,7 +11453,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1">
       <c r="A58" t="s">
         <v>136</v>
       </c>
@@ -11460,7 +11467,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" t="s">
         <v>137</v>
       </c>
@@ -11474,7 +11481,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" t="s">
         <v>138</v>
       </c>
@@ -11488,7 +11495,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -11502,7 +11509,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -11516,7 +11523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63" t="s">
         <v>141</v>
       </c>
@@ -11530,7 +11537,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" t="s">
         <v>142</v>
       </c>
@@ -11544,7 +11551,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -11558,7 +11565,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -11572,7 +11579,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -11586,7 +11593,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -11600,7 +11607,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1">
       <c r="A69" t="s">
         <v>147</v>
       </c>
@@ -11614,7 +11621,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" hidden="1">
       <c r="A70" t="s">
         <v>148</v>
       </c>
@@ -11628,7 +11635,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" hidden="1">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -11642,7 +11649,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1">
       <c r="A72" t="s">
         <v>150</v>
       </c>
@@ -11656,7 +11663,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" hidden="1">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -11670,7 +11677,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -11684,7 +11691,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -11698,7 +11705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1">
       <c r="A76" t="s">
         <v>154</v>
       </c>
@@ -11712,7 +11719,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" t="s">
         <v>155</v>
       </c>
@@ -11726,7 +11733,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -11740,7 +11747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -11754,7 +11761,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -11768,7 +11775,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -11782,7 +11789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -11796,7 +11803,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" hidden="1">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -11810,7 +11817,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1">
       <c r="A84" t="s">
         <v>162</v>
       </c>
@@ -11824,7 +11831,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" hidden="1">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -11838,7 +11845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -11852,7 +11859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" hidden="1">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -11866,7 +11873,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" hidden="1">
       <c r="A88" t="s">
         <v>166</v>
       </c>
@@ -11880,7 +11887,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" hidden="1">
       <c r="A89" t="s">
         <v>167</v>
       </c>
@@ -11894,7 +11901,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" t="s">
         <v>168</v>
       </c>
@@ -11908,7 +11915,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" hidden="1">
       <c r="A91" t="s">
         <v>169</v>
       </c>
@@ -11922,7 +11929,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" t="s">
         <v>170</v>
       </c>
@@ -11936,7 +11943,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" t="s">
         <v>171</v>
       </c>
@@ -11950,7 +11957,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" t="s">
         <v>172</v>
       </c>
@@ -11964,7 +11971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" hidden="1">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -11978,7 +11985,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1">
       <c r="A96" t="s">
         <v>174</v>
       </c>
@@ -11992,7 +11999,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" hidden="1">
       <c r="A97" t="s">
         <v>175</v>
       </c>
@@ -12006,7 +12013,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" hidden="1">
       <c r="A98" t="s">
         <v>176</v>
       </c>
@@ -12020,7 +12027,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" hidden="1">
       <c r="A99" t="s">
         <v>177</v>
       </c>
@@ -12034,7 +12041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" hidden="1">
       <c r="A100" t="s">
         <v>178</v>
       </c>
@@ -12048,7 +12055,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" hidden="1">
       <c r="A101" t="s">
         <v>179</v>
       </c>
@@ -12062,7 +12069,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" hidden="1">
       <c r="A102" t="s">
         <v>180</v>
       </c>
@@ -12076,7 +12083,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" hidden="1">
       <c r="A103" t="s">
         <v>181</v>
       </c>
@@ -12090,7 +12097,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" hidden="1">
       <c r="A104" t="s">
         <v>182</v>
       </c>
@@ -12104,7 +12111,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" hidden="1">
       <c r="A105" t="s">
         <v>183</v>
       </c>
@@ -12118,7 +12125,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" hidden="1">
       <c r="A106" t="s">
         <v>184</v>
       </c>
@@ -12132,7 +12139,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" hidden="1">
       <c r="A107" t="s">
         <v>185</v>
       </c>
@@ -12146,7 +12153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" hidden="1">
       <c r="A108" t="s">
         <v>186</v>
       </c>
@@ -12160,7 +12167,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" hidden="1">
       <c r="A109" t="s">
         <v>187</v>
       </c>
@@ -12174,7 +12181,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" hidden="1">
       <c r="A110" t="s">
         <v>188</v>
       </c>
@@ -12188,7 +12195,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" hidden="1">
       <c r="A111" t="s">
         <v>189</v>
       </c>
@@ -12202,7 +12209,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" hidden="1">
       <c r="A112" t="s">
         <v>190</v>
       </c>
@@ -12216,7 +12223,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" hidden="1">
       <c r="A113" t="s">
         <v>191</v>
       </c>
@@ -12230,7 +12237,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" hidden="1">
       <c r="A114" t="s">
         <v>192</v>
       </c>
@@ -12258,7 +12265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" hidden="1">
       <c r="A116" t="s">
         <v>194</v>
       </c>
@@ -12272,7 +12279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" hidden="1">
       <c r="A117" t="s">
         <v>195</v>
       </c>
@@ -12286,7 +12293,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" hidden="1">
       <c r="A118" t="s">
         <v>196</v>
       </c>
@@ -12300,7 +12307,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" hidden="1">
       <c r="A119" t="s">
         <v>197</v>
       </c>
@@ -12314,7 +12321,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" hidden="1">
       <c r="A120" t="s">
         <v>198</v>
       </c>
@@ -12328,7 +12335,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" hidden="1">
       <c r="A121" t="s">
         <v>199</v>
       </c>
@@ -12342,7 +12349,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" hidden="1">
       <c r="A122" t="s">
         <v>200</v>
       </c>
@@ -12356,7 +12363,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" hidden="1">
       <c r="A123" t="s">
         <v>201</v>
       </c>
@@ -12370,7 +12377,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" hidden="1">
       <c r="A124" t="s">
         <v>202</v>
       </c>
@@ -12384,7 +12391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" hidden="1">
       <c r="A125" t="s">
         <v>203</v>
       </c>
@@ -12412,7 +12419,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" hidden="1">
       <c r="A127" t="s">
         <v>205</v>
       </c>
@@ -12426,7 +12433,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" hidden="1">
       <c r="A128" t="s">
         <v>206</v>
       </c>
@@ -12440,7 +12447,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" hidden="1">
       <c r="A129" t="s">
         <v>207</v>
       </c>
@@ -12454,7 +12461,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" hidden="1">
       <c r="A130" t="s">
         <v>208</v>
       </c>
@@ -12468,7 +12475,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" hidden="1">
       <c r="A131" t="s">
         <v>209</v>
       </c>
@@ -12482,7 +12489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" hidden="1">
       <c r="A132" t="s">
         <v>210</v>
       </c>
@@ -12496,7 +12503,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" hidden="1">
       <c r="A133" t="s">
         <v>211</v>
       </c>
@@ -12510,7 +12517,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" hidden="1">
       <c r="A134" t="s">
         <v>212</v>
       </c>
@@ -12524,7 +12531,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" hidden="1">
       <c r="A135" t="s">
         <v>213</v>
       </c>
@@ -12538,7 +12545,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" hidden="1">
       <c r="A136" t="s">
         <v>214</v>
       </c>
@@ -12552,7 +12559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" hidden="1">
       <c r="A137" t="s">
         <v>215</v>
       </c>
@@ -12566,7 +12573,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" hidden="1">
       <c r="A138" t="s">
         <v>216</v>
       </c>
@@ -12580,7 +12587,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" hidden="1">
       <c r="A139" t="s">
         <v>217</v>
       </c>
@@ -12594,7 +12601,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" hidden="1">
       <c r="A140" t="s">
         <v>218</v>
       </c>
@@ -12608,7 +12615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" hidden="1">
       <c r="A141" t="s">
         <v>219</v>
       </c>
@@ -12622,7 +12629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" hidden="1">
       <c r="A142" t="s">
         <v>220</v>
       </c>
@@ -12636,7 +12643,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" hidden="1">
       <c r="A143" t="s">
         <v>221</v>
       </c>
@@ -12650,7 +12657,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" hidden="1">
       <c r="A144" t="s">
         <v>222</v>
       </c>
@@ -12664,7 +12671,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" hidden="1">
       <c r="A145" t="s">
         <v>223</v>
       </c>
@@ -12678,7 +12685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" hidden="1">
       <c r="A146" t="s">
         <v>224</v>
       </c>
@@ -12692,7 +12699,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" hidden="1">
       <c r="A147" t="s">
         <v>225</v>
       </c>
@@ -12706,7 +12713,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" hidden="1">
       <c r="A148" t="s">
         <v>226</v>
       </c>
@@ -12720,7 +12727,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" hidden="1">
       <c r="A149" t="s">
         <v>227</v>
       </c>
@@ -12734,7 +12741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" hidden="1">
       <c r="A150" t="s">
         <v>228</v>
       </c>
@@ -12748,7 +12755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" hidden="1">
       <c r="A151" t="s">
         <v>229</v>
       </c>
@@ -12762,7 +12769,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" hidden="1">
       <c r="A152" t="s">
         <v>230</v>
       </c>
@@ -12776,7 +12783,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" hidden="1">
       <c r="A153" t="s">
         <v>231</v>
       </c>
@@ -12790,7 +12797,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" hidden="1">
       <c r="A154" t="s">
         <v>232</v>
       </c>
@@ -12804,7 +12811,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" hidden="1">
       <c r="A155" t="s">
         <v>233</v>
       </c>
@@ -12818,7 +12825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" hidden="1">
       <c r="A156" t="s">
         <v>234</v>
       </c>
@@ -12832,7 +12839,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" hidden="1">
       <c r="A157" t="s">
         <v>235</v>
       </c>
@@ -12846,7 +12853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" hidden="1">
       <c r="A158" t="s">
         <v>236</v>
       </c>
@@ -12860,7 +12867,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" hidden="1">
       <c r="A159" t="s">
         <v>237</v>
       </c>
@@ -12874,7 +12881,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" hidden="1">
       <c r="A160" t="s">
         <v>238</v>
       </c>
@@ -12888,7 +12895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1">
       <c r="A161" t="s">
         <v>239</v>
       </c>
@@ -12902,7 +12909,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1">
       <c r="A162" t="s">
         <v>240</v>
       </c>
@@ -12916,7 +12923,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1">
       <c r="A163" t="s">
         <v>241</v>
       </c>
@@ -12930,7 +12937,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" hidden="1">
       <c r="A164" t="s">
         <v>242</v>
       </c>
@@ -12944,7 +12951,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1">
       <c r="A165" t="s">
         <v>243</v>
       </c>
@@ -12958,7 +12965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" hidden="1">
       <c r="A166" t="s">
         <v>244</v>
       </c>
@@ -12986,7 +12993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" hidden="1">
       <c r="A168" t="s">
         <v>246</v>
       </c>
@@ -13000,7 +13007,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" hidden="1">
       <c r="A169" t="s">
         <v>247</v>
       </c>
@@ -13014,7 +13021,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1">
       <c r="A170" t="s">
         <v>248</v>
       </c>
@@ -13042,7 +13049,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1">
       <c r="A172" t="s">
         <v>250</v>
       </c>
@@ -13056,7 +13063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1">
       <c r="A173" t="s">
         <v>251</v>
       </c>
@@ -13070,7 +13077,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1">
       <c r="A174" t="s">
         <v>252</v>
       </c>
@@ -13084,7 +13091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" hidden="1">
       <c r="A175" t="s">
         <v>253</v>
       </c>
@@ -13098,7 +13105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" hidden="1">
       <c r="A176" t="s">
         <v>254</v>
       </c>
@@ -13112,7 +13119,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1">
       <c r="A177" t="s">
         <v>255</v>
       </c>
@@ -13126,7 +13133,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" hidden="1">
       <c r="A178" t="s">
         <v>256</v>
       </c>
@@ -13140,7 +13147,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" hidden="1">
       <c r="A179" t="s">
         <v>257</v>
       </c>
@@ -13154,7 +13161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" hidden="1">
       <c r="A180" t="s">
         <v>258</v>
       </c>
@@ -13168,7 +13175,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" hidden="1">
       <c r="A181" t="s">
         <v>259</v>
       </c>
@@ -13182,7 +13189,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" hidden="1">
       <c r="A182" t="s">
         <v>260</v>
       </c>
@@ -13196,7 +13203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" hidden="1">
       <c r="A183" t="s">
         <v>261</v>
       </c>
@@ -13210,7 +13217,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" hidden="1">
       <c r="A184" t="s">
         <v>262</v>
       </c>
@@ -13224,7 +13231,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" hidden="1">
       <c r="A185" t="s">
         <v>263</v>
       </c>
@@ -13238,7 +13245,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" hidden="1">
       <c r="A186" t="s">
         <v>264</v>
       </c>
@@ -13252,7 +13259,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" hidden="1">
       <c r="A187" t="s">
         <v>265</v>
       </c>
@@ -13266,7 +13273,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" hidden="1">
       <c r="A188" t="s">
         <v>266</v>
       </c>
@@ -13280,7 +13287,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" hidden="1">
       <c r="A189" t="s">
         <v>267</v>
       </c>
@@ -13294,7 +13301,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" hidden="1">
       <c r="A190" t="s">
         <v>268</v>
       </c>
@@ -13308,7 +13315,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" hidden="1">
       <c r="A191" t="s">
         <v>268</v>
       </c>
@@ -13322,7 +13329,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" hidden="1">
       <c r="A192" t="s">
         <v>268</v>
       </c>
@@ -13336,7 +13343,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" hidden="1">
       <c r="A193" t="s">
         <v>269</v>
       </c>
@@ -13350,7 +13357,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" hidden="1">
       <c r="A194" t="s">
         <v>270</v>
       </c>
@@ -13364,7 +13371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" hidden="1">
       <c r="A195" t="s">
         <v>271</v>
       </c>
@@ -13378,7 +13385,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" hidden="1">
       <c r="A196" t="s">
         <v>272</v>
       </c>
@@ -13392,7 +13399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" hidden="1">
       <c r="A197" t="s">
         <v>273</v>
       </c>
@@ -13406,7 +13413,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" hidden="1">
       <c r="A198" t="s">
         <v>274</v>
       </c>
@@ -13420,7 +13427,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" hidden="1">
       <c r="A199" t="s">
         <v>275</v>
       </c>
@@ -13434,7 +13441,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" hidden="1">
       <c r="A200" t="s">
         <v>276</v>
       </c>
@@ -13448,7 +13455,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" hidden="1">
       <c r="A201" t="s">
         <v>277</v>
       </c>
@@ -13462,7 +13469,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" hidden="1">
       <c r="A202" t="s">
         <v>278</v>
       </c>
@@ -13476,7 +13483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" hidden="1">
       <c r="A203" t="s">
         <v>279</v>
       </c>
@@ -13490,7 +13497,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" hidden="1">
       <c r="A204" t="s">
         <v>280</v>
       </c>
@@ -13504,7 +13511,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" hidden="1">
       <c r="A205" t="s">
         <v>281</v>
       </c>
@@ -13518,7 +13525,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" hidden="1">
       <c r="A206" t="s">
         <v>282</v>
       </c>
@@ -13532,7 +13539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" hidden="1">
       <c r="A207" t="s">
         <v>283</v>
       </c>
@@ -13546,7 +13553,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" hidden="1">
       <c r="A208" t="s">
         <v>284</v>
       </c>
@@ -13560,7 +13567,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" hidden="1">
       <c r="A209" t="s">
         <v>285</v>
       </c>
@@ -13574,7 +13581,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" hidden="1">
       <c r="A210" t="s">
         <v>286</v>
       </c>
@@ -13588,7 +13595,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" hidden="1">
       <c r="A211" t="s">
         <v>287</v>
       </c>
@@ -13602,7 +13609,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" hidden="1">
       <c r="A212" t="s">
         <v>288</v>
       </c>
@@ -13616,7 +13623,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" hidden="1">
       <c r="A213" t="s">
         <v>289</v>
       </c>
@@ -13630,7 +13637,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" hidden="1">
       <c r="A214" t="s">
         <v>290</v>
       </c>
@@ -13644,7 +13651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" hidden="1">
       <c r="A215" t="s">
         <v>291</v>
       </c>
@@ -13658,7 +13665,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" hidden="1">
       <c r="A216" t="s">
         <v>292</v>
       </c>
@@ -13672,7 +13679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" hidden="1">
       <c r="A217" t="s">
         <v>293</v>
       </c>
@@ -13686,7 +13693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" hidden="1">
       <c r="A218" t="s">
         <v>294</v>
       </c>
@@ -13700,7 +13707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" hidden="1">
       <c r="A219" t="s">
         <v>295</v>
       </c>
@@ -13714,7 +13721,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" hidden="1">
       <c r="A220" t="s">
         <v>296</v>
       </c>
@@ -13728,7 +13735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" hidden="1">
       <c r="A221" t="s">
         <v>297</v>
       </c>
@@ -13742,7 +13749,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" hidden="1">
       <c r="A222" t="s">
         <v>298</v>
       </c>
@@ -13756,7 +13763,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" hidden="1">
       <c r="A223" t="s">
         <v>299</v>
       </c>
@@ -13770,7 +13777,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" hidden="1">
       <c r="A224" t="s">
         <v>300</v>
       </c>
@@ -13784,7 +13791,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" hidden="1">
       <c r="A225" t="s">
         <v>301</v>
       </c>
@@ -13798,7 +13805,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" hidden="1">
       <c r="A226" t="s">
         <v>302</v>
       </c>
@@ -13813,7 +13820,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D226" xr:uid="{6124B996-A432-6340-9DCC-BD0AF4F4EEBE}"/>
+  <autoFilter ref="A1:D226" xr:uid="{6124B996-A432-6340-9DCC-BD0AF4F4EEBE}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Garrett"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Region I"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
